--- a/주식.xlsx
+++ b/주식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongik\Documents\GitHub\Exjam_Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pha21\Documents\GitHub\Exjam_Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11624584-9CA3-4F52-AC8F-E3BC20DEB1A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B936B1A-2C84-4102-8812-A16A6CA94383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="12" xr2:uid="{53D3BB28-C6BE-4CFD-A975-D3930D6D027B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{53D3BB28-C6BE-4CFD-A975-D3930D6D027B}"/>
   </bookViews>
   <sheets>
     <sheet name="가격" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,26 @@
     <sheet name="8차" sheetId="11" r:id="rId10"/>
     <sheet name="9차" sheetId="12" r:id="rId11"/>
     <sheet name="10차" sheetId="13" r:id="rId12"/>
-    <sheet name="10차 (2)" sheetId="15" r:id="rId13"/>
+    <sheet name="결과" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'10차 (2)'!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">결과!$D$2:$D$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -154,7 +165,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="0;\-0;;@"/>
+    <numFmt numFmtId="177" formatCode="0;\-0;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -468,25 +479,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,17 +507,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -849,17 +850,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED620AF-BA05-4538-A8E3-46AF2D1751AD}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,241 +886,225 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>6.9444444444444441E-3</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
       <c r="B3">
-        <v>101.4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>106.88</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>106.83</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>92.52</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>120.76</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>88.46</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>84.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>1.3888888888888888E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
       <c r="B4">
-        <v>111.17</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>118.95</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>106.45</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>86.2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>130.4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>92.42</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>83.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5">
-        <v>93.28</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>123.4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>133.55000000000001</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>80.63</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>119.06</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>94.46</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>89.74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>2.7777777777777776E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
       <c r="B6">
-        <v>90.69</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>127.02</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>132.44999999999999</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>82.87</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>120.91</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>90.52</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>79.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>3.4722222222222224E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7">
-        <v>82.51</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>132.4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>115.01</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>89.61</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>129.04</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>85.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
       <c r="B8">
-        <v>78.569999999999993</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>121.31</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>112.4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>82.3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>127.03</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>91.35</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>74.28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>4.8611111111111112E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>114.74</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>105.39</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>88.63</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>126.76</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>91.95</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>73.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>5.5555555555555552E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10">
-        <v>66.66</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>125.64</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>101.16</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>83.49</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>127.28</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>88.67</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>72.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>0</v>
@@ -1143,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>0</v>
@@ -1181,17 +1166,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1227,18 +1212,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <f>'7차'!E3 + ('7차'!F3*가격!$B$9 +'7차'!G3*가격!$C$9 + '7차'!H3*가격!$D$9 + '7차'!I3*가격!$E$9 + '7차'!J3*가격!$F$9 + '7차'!K3*가격!$G$9 + '7차'!L3*가격!$H$9)</f>
-        <v>962.18000000000006</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <f>D3-(F3*가격!$B$9 + '8차'!G3*가격!$C$9 + '8차'!H3*가격!$D$9 + '8차'!I3* 가격!$E$9 +'8차'!J3*가격!$F$9 + '8차'!K3*가격!$G$9 + '8차'!L3*가격!$H$9)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="21">
         <f>'7차'!F3</f>
@@ -1254,7 +1239,7 @@
       </c>
       <c r="I3" s="21">
         <f>'7차'!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21">
         <f>'7차'!J3</f>
@@ -1266,11 +1251,11 @@
       </c>
       <c r="L3" s="21">
         <f>'7차'!L3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1313,7 +1298,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1356,7 +1341,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1399,7 +1384,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1442,7 +1427,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1485,7 +1470,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1528,7 +1513,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1571,7 +1556,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1614,7 +1599,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1657,7 +1642,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1700,7 +1685,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1743,7 +1728,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1786,7 +1771,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1829,7 +1814,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1872,7 +1857,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1915,7 +1900,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1958,7 +1943,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -2001,7 +1986,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -2044,7 +2029,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -2087,7 +2072,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -2130,7 +2115,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -2173,7 +2158,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -2216,7 +2201,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -2259,7 +2244,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -2302,7 +2287,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -2345,7 +2330,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -2388,7 +2373,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -2431,7 +2416,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -2474,7 +2459,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -2517,7 +2502,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -2560,7 +2545,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -2603,7 +2588,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -2646,7 +2631,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -2689,7 +2674,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -2747,17 +2732,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -2793,18 +2778,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <f>'8차'!E3 + ('8차'!F3*가격!$B$10 +'8차'!G3*가격!$C$10 + '8차'!H3*가격!$D$10 + '8차'!I3*가격!$E$10 + '8차'!J3*가격!$F$10 + '8차'!K3*가격!$G$10 + '8차'!L3*가격!$H$10)</f>
-        <v>955.76</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <f>D3-(F3*가격!$B$10 + '9차'!G3*가격!$C$10 + '9차'!H3*가격!$D$10 + '9차'!I3* 가격!$E$10 +'9차'!J3*가격!$F$10 + '9차'!K3*가격!$G$10 + '9차'!L3*가격!$H$10)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="21">
         <f>'8차'!F3</f>
@@ -2820,7 +2805,7 @@
       </c>
       <c r="I3" s="21">
         <f>'8차'!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21">
         <f>'8차'!J3</f>
@@ -2832,11 +2817,11 @@
       </c>
       <c r="L3" s="21">
         <f>'8차'!L3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -2879,7 +2864,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -2922,7 +2907,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -2965,7 +2950,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -3008,7 +2993,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -3051,7 +3036,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -3094,7 +3079,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -3137,7 +3122,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -3180,7 +3165,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -3223,7 +3208,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -3266,7 +3251,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -3309,7 +3294,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -3352,7 +3337,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -3395,7 +3380,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -3438,7 +3423,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -3481,7 +3466,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -3524,7 +3509,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -3567,7 +3552,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -3610,7 +3595,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -3653,7 +3638,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -3696,7 +3681,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -3739,7 +3724,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -3782,7 +3767,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -3825,7 +3810,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -3868,7 +3853,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -3911,7 +3896,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -3954,7 +3939,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -3997,7 +3982,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -4040,7 +4025,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -4083,7 +4068,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -4126,7 +4111,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -4169,7 +4154,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -4212,7 +4197,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -4255,7 +4240,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -4313,17 +4298,17 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -4359,18 +4344,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <f>'9차'!E3 + ('9차'!F3*가격!$B$11 +'9차'!G3*가격!$C$11 + '9차'!H3*가격!$D$11 + '9차'!I3*가격!$E$11 + '9차'!J3*가격!$F$11 + '9차'!K3*가격!$G$11 + '9차'!L3*가격!$H$11)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <f>D3-(F3*가격!$B$11 + '10차'!G3*가격!$C$11 + '10차'!H3*가격!$D$11 + '10차'!I3* 가격!$E$11 +'10차'!J3*가격!$F$11 + '10차'!K3*가격!$G$11 + '10차'!L3*가격!$H$11)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="21">
         <f>'9차'!F3</f>
@@ -4386,7 +4371,7 @@
       </c>
       <c r="I3" s="21">
         <f>'9차'!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21">
         <f>'9차'!J3</f>
@@ -4398,11 +4383,11 @@
       </c>
       <c r="L3" s="21">
         <f>'9차'!L3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -4445,7 +4430,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -4488,7 +4473,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -4531,7 +4516,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -4574,7 +4559,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -4617,7 +4602,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -4660,7 +4645,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -4703,7 +4688,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -4746,7 +4731,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -4789,7 +4774,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -4832,7 +4817,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -4875,7 +4860,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -4918,7 +4903,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -4961,7 +4946,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -5004,7 +4989,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -5047,7 +5032,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -5090,7 +5075,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -5133,7 +5118,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -5176,7 +5161,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -5219,7 +5204,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -5262,7 +5247,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -5305,7 +5290,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -5348,7 +5333,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -5391,7 +5376,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -5434,7 +5419,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -5477,7 +5462,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -5520,7 +5505,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -5563,7 +5548,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -5606,7 +5591,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -5649,7 +5634,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -5692,7 +5677,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -5735,7 +5720,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -5778,7 +5763,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -5821,7 +5806,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -5875,21 +5860,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA22095-42A5-4C4A-AD20-B4389F57525C}">
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -5907,14 +5892,14 @@
       <c r="L2" s="23"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="22">
         <f>'10차'!E3 + ('10차'!F3*가격!$B$12 +'10차'!G3*가격!$C$12 + '10차'!H3*가격!$D$12 + '10차'!I3*가격!$E$12 + '10차'!J3*가격!$F$12 + '10차'!K3*가격!$G$12 + '10차'!L3*가격!$H$12)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="24"/>
@@ -5926,7 +5911,7 @@
       <c r="L3" s="24"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -5945,7 +5930,7 @@
       <c r="L4" s="24"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -5964,7 +5949,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -5983,7 +5968,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -6002,7 +5987,7 @@
       <c r="L7" s="24"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -6021,7 +6006,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -6040,7 +6025,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -6059,7 +6044,7 @@
       <c r="L10" s="24"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -6078,7 +6063,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -6097,7 +6082,7 @@
       <c r="L12" s="24"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -6116,7 +6101,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -6135,7 +6120,7 @@
       <c r="L14" s="24"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -6154,7 +6139,7 @@
       <c r="L15" s="24"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -6173,7 +6158,7 @@
       <c r="L16" s="24"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -6192,7 +6177,7 @@
       <c r="L17" s="24"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -6211,7 +6196,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -6230,7 +6215,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -6249,7 +6234,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -6268,7 +6253,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -6287,7 +6272,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -6306,7 +6291,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -6325,7 +6310,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -6344,7 +6329,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -6363,7 +6348,7 @@
       <c r="L26" s="24"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -6382,7 +6367,7 @@
       <c r="L27" s="24"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -6401,7 +6386,7 @@
       <c r="L28" s="24"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -6420,7 +6405,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -6439,7 +6424,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -6458,7 +6443,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -6477,7 +6462,7 @@
       <c r="L32" s="24"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -6496,7 +6481,7 @@
       <c r="L33" s="24"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -6515,7 +6500,7 @@
       <c r="L34" s="24"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -6534,7 +6519,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -6553,7 +6538,7 @@
       <c r="L36" s="24"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -6587,13 +6572,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
       <c r="C2" s="16" t="s">
         <v>16</v>
@@ -6631,7 +6616,7 @@
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6640,39 +6625,39 @@
       </c>
       <c r="D3" s="9">
         <f>(가격!B3 - 가격!B2) / 가격!B2</f>
-        <v>1.4000000000000058E-2</v>
-      </c>
-      <c r="E3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="9" t="e">
         <f>(가격!B4-가격!B3)/가격!B3</f>
-        <v>9.6351084812623236E-2</v>
-      </c>
-      <c r="F3" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" s="9" t="e">
         <f>(가격!B5-가격!B4)/가격!B4</f>
-        <v>-0.16092470990375102</v>
-      </c>
-      <c r="G3" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="9" t="e">
         <f>(가격!B6-가격!B5)/가격!B5</f>
-        <v>-2.7765866209262472E-2</v>
-      </c>
-      <c r="H3" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="9" t="e">
         <f>(가격!B7 - 가격!B6) / 가격!B6</f>
-        <v>-9.0197375675377583E-2</v>
-      </c>
-      <c r="I3" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="9" t="e">
         <f>(가격!B8-가격!B7)/가격!B7</f>
-        <v>-4.7751787662101704E-2</v>
-      </c>
-      <c r="J3" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="9" t="e">
         <f>(가격!B9-가격!B8)/가격!B8</f>
-        <v>-0.13452971872215852</v>
-      </c>
-      <c r="K3" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="9" t="e">
         <f>(가격!B10-가격!B9)/가격!B9</f>
-        <v>-1.9705882352941226E-2</v>
-      </c>
-      <c r="L3" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="9" t="e">
         <f>(가격!B11-가격!B10)/가격!B10</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M3" s="9" t="e">
         <f>(가격!B12-가격!B11)/가격!B11</f>
@@ -6681,7 +6666,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -6690,39 +6675,39 @@
       </c>
       <c r="D4" s="3">
         <f>(가격!C3 - 가격!C2) / 가격!C2</f>
-        <v>6.8799999999999958E-2</v>
-      </c>
-      <c r="E4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="9" t="e">
         <f>(가격!C4-가격!C3)/가격!C3</f>
-        <v>0.11293038922155696</v>
-      </c>
-      <c r="F4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="3" t="e">
         <f>(가격!C5-가격!C4)/가격!C4</f>
-        <v>3.7410676754939073E-2</v>
-      </c>
-      <c r="G4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="3" t="e">
         <f>(가격!C6-가격!C5)/가격!C6</f>
-        <v>2.849944890568407E-2</v>
-      </c>
-      <c r="H4" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="9" t="e">
         <f>(가격!C7-가격!C6)/가격!C6</f>
-        <v>4.2355534561486455E-2</v>
-      </c>
-      <c r="I4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="3" t="e">
         <f>(가격!C8-가격!C7)/가격!C7</f>
-        <v>-8.3761329305135968E-2</v>
-      </c>
-      <c r="J4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="3" t="e">
         <f>(가격!C9-가격!C8)/가격!C8</f>
-        <v>-5.4158766795812441E-2</v>
-      </c>
-      <c r="K4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="3" t="e">
         <f>(가격!C10-가격!C9)/가격!C9</f>
-        <v>9.4997385393062628E-2</v>
-      </c>
-      <c r="L4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="3" t="e">
         <f>(가격!C11-가격!C10)/가격!C10</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M4" s="3" t="e">
         <f>(가격!C12-가격!C11)/가격!C11</f>
@@ -6731,7 +6716,7 @@
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -6740,39 +6725,39 @@
       </c>
       <c r="D5" s="3">
         <f>(가격!D3 - 가격!D2) /가격!D2</f>
-        <v>6.8299999999999986E-2</v>
-      </c>
-      <c r="E5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="9" t="e">
         <f>(가격!D4-가격!D3)/가격!D3</f>
-        <v>-3.5570532621922255E-3</v>
-      </c>
-      <c r="F5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="3" t="e">
         <f>(가격!D5-가격!D4)/가격!D4</f>
-        <v>0.25457961484264918</v>
-      </c>
-      <c r="G5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="3" t="e">
         <f>(가격!D6-가격!D5)/가격!D5</f>
-        <v>-8.2366154998129732E-3</v>
-      </c>
-      <c r="H5" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="9" t="e">
         <f>(가격!D7-가격!D6)/가격!D6</f>
-        <v>-0.13167232918082283</v>
-      </c>
-      <c r="I5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="3" t="e">
         <f>(가격!D8-가격!D7)/가격!D7</f>
-        <v>-2.2693678810538208E-2</v>
-      </c>
-      <c r="J5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="3" t="e">
         <f>(가격!D9-가격!D8)/가격!D8</f>
-        <v>-6.2366548042704667E-2</v>
-      </c>
-      <c r="K5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="3" t="e">
         <f>(가격!D10-가격!D9)/가격!D9</f>
-        <v>-4.0136635354397987E-2</v>
-      </c>
-      <c r="L5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="3" t="e">
         <f>(가격!D11-가격!D10)/가격!D10</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M5" s="3" t="e">
         <f>(가격!D12-가격!D11)/가격!D11</f>
@@ -6781,7 +6766,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -6790,39 +6775,39 @@
       </c>
       <c r="D6" s="3">
         <f>(가격!E3-가격!E2) / 가격!E2</f>
-        <v>-7.4800000000000033E-2</v>
-      </c>
-      <c r="E6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9" t="e">
         <f>(가격!E4-가격!E3)/가격!E3</f>
-        <v>-6.8309554690877572E-2</v>
-      </c>
-      <c r="F6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="3" t="e">
         <f>(가격!E5-가격!E4)/가격!E4</f>
-        <v>-6.4617169373549971E-2</v>
-      </c>
-      <c r="G6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="3" t="e">
         <f>(가격!E6-가격!E5)/가격!E5</f>
-        <v>2.7781222869899657E-2</v>
-      </c>
-      <c r="H6" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="9" t="e">
         <f>(가격!E7-가격!E6)/가격!E6</f>
-        <v>8.1332207071316456E-2</v>
-      </c>
-      <c r="I6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="3" t="e">
         <f>(가격!E8-가격!E7)/가격!E7</f>
-        <v>-8.1575716995871017E-2</v>
-      </c>
-      <c r="J6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="3" t="e">
         <f>(가격!E9-가격!E8)/가격!E8</f>
-        <v>7.6913730255164015E-2</v>
-      </c>
-      <c r="K6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="3" t="e">
         <f>(가격!E10-가격!E9)/가격!E9</f>
-        <v>-5.7993907254879844E-2</v>
-      </c>
-      <c r="L6" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="9" t="e">
         <f>(가격!E11-가격!E10)/가격!E10</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M6" s="3" t="e">
         <f>(가격!E12-가격!E11)/가격!E11</f>
@@ -6831,7 +6816,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -6840,39 +6825,39 @@
       </c>
       <c r="D7" s="3">
         <f>(가격!F3 - 가격!F2) / 가격!F2</f>
-        <v>0.20760000000000006</v>
-      </c>
-      <c r="E7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="9" t="e">
         <f>(가격!F4-가격!F3)/가격!F3</f>
-        <v>7.9827757535607821E-2</v>
-      </c>
-      <c r="F7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="3" t="e">
         <f>(가격!F5-가격!F4)/가격!F4</f>
-        <v>-8.6963190184049105E-2</v>
-      </c>
-      <c r="G7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="3" t="e">
         <f>(가격!F6-가격!F5)/가격!F5</f>
-        <v>1.5538384008063113E-2</v>
-      </c>
-      <c r="H7" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="9" t="e">
         <f>(가격!F7-가격!F6)/가격!F6</f>
-        <v>6.7240095939128247E-2</v>
-      </c>
-      <c r="I7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="3" t="e">
         <f>(가격!F8-가격!F7)/가격!F7</f>
-        <v>-1.5576565406075566E-2</v>
-      </c>
-      <c r="J7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="3" t="e">
         <f>(가격!F9-가격!F8)/가격!F8</f>
-        <v>-2.1254821695662128E-3</v>
-      </c>
-      <c r="K7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="3" t="e">
         <f>(가격!F10-가격!F9)/가격!F9</f>
-        <v>4.1022404544019883E-3</v>
-      </c>
-      <c r="L7" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="9" t="e">
         <f>(가격!F11-가격!F10)/가격!F10</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M7" s="3" t="e">
         <f>(가격!F11-가격!F12)/가격!F12</f>
@@ -6881,7 +6866,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -6890,39 +6875,39 @@
       </c>
       <c r="D8" s="3">
         <f>(가격!G3-가격!G2)/가격!G2</f>
-        <v>-0.11540000000000006</v>
-      </c>
-      <c r="E8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="9" t="e">
         <f>(가격!G4-가격!G3)/가격!G3</f>
-        <v>4.4765995930364101E-2</v>
-      </c>
-      <c r="F8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="3" t="e">
         <f>(가격!G5-가격!G4)/가격!G4</f>
-        <v>2.2073144341051634E-2</v>
-      </c>
-      <c r="G8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="3" t="e">
         <f>(가격!G6-가격!G5)/가격!G5</f>
-        <v>-4.1710777048486108E-2</v>
-      </c>
-      <c r="H8" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="9" t="e">
         <f>(가격!G7-가격!G6)/가격!G6</f>
-        <v>-7.942996022978345E-2</v>
-      </c>
-      <c r="I8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="3" t="e">
         <f>(가격!G8-가격!G7)/가격!G7</f>
-        <v>9.6243849753990113E-2</v>
-      </c>
-      <c r="J8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="3" t="e">
         <f>(가격!G9-가격!G8)/가격!G8</f>
-        <v>6.5681444991790754E-3</v>
-      </c>
-      <c r="K8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="3" t="e">
         <f>(가격!G10-가격!G9)/가격!G9</f>
-        <v>-3.5671560630777609E-2</v>
-      </c>
-      <c r="L8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="3" t="e">
         <f>(가격!G11-가격!G10)/가격!G10</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M8" s="3" t="e">
         <f>(가격!G12-가격!G11)/가격!G11</f>
@@ -6931,7 +6916,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -6940,39 +6925,39 @@
       </c>
       <c r="D9" s="14">
         <f>(가격!H3-가격!H2)/가격!H2</f>
-        <v>-0.15370000000000006</v>
-      </c>
-      <c r="E9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="15" t="e">
         <f>(가격!H4-가격!H3)/가격!H3</f>
-        <v>-1.4533853243530542E-2</v>
-      </c>
-      <c r="F9" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="14" t="e">
         <f>(가격!H5-가격!H4)/가격!H4</f>
-        <v>7.6019184652278041E-2</v>
-      </c>
-      <c r="G9" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="14" t="e">
         <f>(가격!H6-가격!H5)/가격!H5</f>
-        <v>-0.11689324715845771</v>
-      </c>
-      <c r="H9" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="15" t="e">
         <f>(가격!H7-가격!H6)/가격!H6</f>
-        <v>7.7602523659306061E-2</v>
-      </c>
-      <c r="I9" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="14" t="e">
         <f>(가격!H8-가격!H7)/가격!H7</f>
-        <v>-0.1302107728337237</v>
-      </c>
-      <c r="J9" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="14" t="e">
         <f>(가격!H9-가격!H8)/가격!H8</f>
-        <v>-9.8276790522348403E-3</v>
-      </c>
-      <c r="K9" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="14" t="e">
         <f>(가격!H10-가격!H9)/가격!H9</f>
-        <v>-1.7403127124405181E-2</v>
-      </c>
-      <c r="L9" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="14" t="e">
         <f>(가격!H11-가격!H10)/가격!H10</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M9" s="14" t="e">
         <f>(가격!J9-가격!J8)/가격!J8</f>
@@ -6983,20 +6968,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:M9">
-    <cfRule type="expression" dxfId="3" priority="7">
+  <conditionalFormatting sqref="D3:O9">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>D3 &lt; 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>D3 &gt; 0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:O9">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>N3 &lt; 0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>N3 &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7008,20 +6985,20 @@
   <dimension ref="B2:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -7057,7 +7034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -7067,22 +7044,18 @@
       </c>
       <c r="E3" s="2">
         <f>D3-(F3*가격!$B$2 + '1차'!G3*가격!$C$2 + '1차'!H3*가격!$D$2 + '1차'!I3* 가격!$E$2 +'1차'!J3*가격!$F$2 + '1차'!K3*가격!$G$2 + '1차'!L3*가격!$H$2)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -7101,7 +7074,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -7120,7 +7093,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -7139,7 +7112,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -7158,7 +7131,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -7177,7 +7150,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -7196,7 +7169,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -7215,7 +7188,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -7234,7 +7207,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -7253,7 +7226,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -7272,7 +7245,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -7291,7 +7264,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -7310,7 +7283,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -7329,7 +7302,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -7348,7 +7321,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -7367,7 +7340,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -7386,7 +7359,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -7405,7 +7378,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -7424,7 +7397,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -7443,7 +7416,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -7462,7 +7435,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -7481,7 +7454,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -7500,7 +7473,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -7519,7 +7492,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -7538,7 +7511,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -7557,7 +7530,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -7576,7 +7549,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -7595,7 +7568,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -7614,7 +7587,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -7633,7 +7606,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -7652,7 +7625,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -7671,7 +7644,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -7690,7 +7663,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -7709,7 +7682,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -7743,17 +7716,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -7789,18 +7762,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <f>'1차'!E3 + ('1차'!F3*가격!$B$3 +'1차'!G3*가격!$C$3 + '1차'!H3*가격!$D$3 + '1차'!I3*가격!$E$3 + '1차'!J3*가격!$F$3 + '1차'!K3*가격!$G$3 + '1차'!L3*가격!$H$3)</f>
-        <v>977.15</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <f>D3-(F3*가격!$B$3 + '2차'!G3*가격!$C$3 + '2차'!H3*가격!$D$3 + '2차'!I3* 가격!$E$3 +'2차'!J3*가격!$F$3 + '2차'!K3*가격!$G$3 + '2차'!L3*가격!$H$3)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="21">
         <f>'1차'!F3</f>
@@ -7816,7 +7789,7 @@
       </c>
       <c r="I3" s="21">
         <f>'1차'!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21">
         <f>'1차'!J3</f>
@@ -7828,11 +7801,11 @@
       </c>
       <c r="L3" s="21">
         <f>'1차'!L3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -7875,7 +7848,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -7918,7 +7891,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -7961,7 +7934,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -8004,7 +7977,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -8047,7 +8020,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -8090,7 +8063,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -8133,7 +8106,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -8176,7 +8149,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -8219,7 +8192,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -8262,7 +8235,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -8305,7 +8278,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -8348,7 +8321,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -8391,7 +8364,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -8434,7 +8407,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -8477,7 +8450,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -8520,7 +8493,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -8563,7 +8536,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -8606,7 +8579,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -8649,7 +8622,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -8692,7 +8665,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -8735,7 +8708,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -8778,7 +8751,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -8821,7 +8794,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -8864,7 +8837,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -8907,7 +8880,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -8950,7 +8923,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -8993,7 +8966,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -9036,7 +9009,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -9079,7 +9052,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -9122,7 +9095,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -9165,7 +9138,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -9208,7 +9181,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -9251,7 +9224,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -9309,17 +9282,17 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -9355,18 +9328,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <f>'2차'!E3 + ('2차'!F3*가격!$B$4 +'2차'!G3*가격!$C$4 + '2차'!H3*가격!$D$4 + '2차'!I3*가격!$E$4 + '2차'!J3*가격!$F$4 + '2차'!K3*가격!$G$4 + '2차'!L3*가격!$H$4)</f>
-        <v>969.6</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <f>D3-(F3*가격!$B$4 + '3차'!G3*가격!$C$4 + '3차'!H3*가격!$D$4 + '3차'!I3* 가격!$E$4 +'3차'!J3*가격!$F$4 + '3차'!K3*가격!$G$4 + '3차'!L3*가격!$H$4)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="21">
         <f>'2차'!F3</f>
@@ -9382,7 +9355,7 @@
       </c>
       <c r="I3" s="21">
         <f>'2차'!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21">
         <f>'2차'!J3</f>
@@ -9394,11 +9367,11 @@
       </c>
       <c r="L3" s="21">
         <f>'2차'!L3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -9441,7 +9414,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -9484,7 +9457,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -9527,7 +9500,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -9570,7 +9543,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -9613,7 +9586,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -9656,7 +9629,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -9699,7 +9672,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -9742,7 +9715,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -9785,7 +9758,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -9828,7 +9801,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -9871,7 +9844,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -9914,7 +9887,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -9957,7 +9930,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -10000,7 +9973,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -10043,7 +10016,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -10086,7 +10059,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -10129,7 +10102,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -10172,7 +10145,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -10215,7 +10188,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -10258,7 +10231,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -10301,7 +10274,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -10344,7 +10317,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -10387,7 +10360,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -10430,7 +10403,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -10473,7 +10446,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -10516,7 +10489,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -10559,7 +10532,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -10602,7 +10575,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -10645,7 +10618,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -10688,7 +10661,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -10731,7 +10704,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -10774,7 +10747,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -10817,7 +10790,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -10875,17 +10848,17 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -10921,18 +10894,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <f>'3차'!E3 + ('3차'!F3*가격!$B$5 +'3차'!G3*가격!$C$5 + '3차'!H3*가격!$D$5 + '3차'!I3*가격!$E$5 + '3차'!J3*가격!$F$5 + '3차'!K3*가격!$G$5 + '3차'!L3*가격!$H$5)</f>
-        <v>970.37</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <f>D3-(F3*가격!$B$5 + '4차'!G3*가격!$C$5 + '4차'!H3*가격!$D$5 + '4차'!I3* 가격!$E$5 +'4차'!J3*가격!$F$5 + '4차'!K3*가격!$G$5 + '4차'!L3*가격!$H$5)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="21">
         <f>'3차'!F3</f>
@@ -10948,7 +10921,7 @@
       </c>
       <c r="I3" s="21">
         <f>'3차'!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21">
         <f>'3차'!J3</f>
@@ -10960,11 +10933,11 @@
       </c>
       <c r="L3" s="21">
         <f>'3차'!L3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -11007,7 +10980,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -11050,7 +11023,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -11093,7 +11066,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -11136,7 +11109,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -11179,7 +11152,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -11222,7 +11195,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -11265,7 +11238,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -11308,7 +11281,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -11351,7 +11324,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -11394,7 +11367,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -11437,7 +11410,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -11480,7 +11453,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -11523,7 +11496,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -11566,7 +11539,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -11609,7 +11582,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -11652,7 +11625,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -11695,7 +11668,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -11738,7 +11711,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -11781,7 +11754,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -11824,7 +11797,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -11867,7 +11840,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -11910,7 +11883,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -11953,7 +11926,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -11996,7 +11969,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -12039,7 +12012,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -12082,7 +12055,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -12125,7 +12098,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -12168,7 +12141,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -12211,7 +12184,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -12254,7 +12227,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -12297,7 +12270,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -12340,7 +12313,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -12383,7 +12356,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -12441,17 +12414,17 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -12487,18 +12460,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <f>'4차'!E3 + ('4차'!F3*가격!$B$6 +'4차'!G3*가격!$C$6 + '4차'!H3*가격!$D$6 + '4차'!I3*가격!$E$6 + '4차'!J3*가격!$F$6 + '4차'!K3*가격!$G$6 + '4차'!L3*가격!$H$6)</f>
-        <v>962.12</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <f>D3-(F3*가격!$B$6 + '5차'!G3*가격!$C$6 + '5차'!H3*가격!$D$6 + '5차'!I3* 가격!$E$6 +'5차'!J3*가격!$F$6 + '5차'!K3*가격!$G$6 + '5차'!L3*가격!$H$6)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="21">
         <f>'4차'!F3</f>
@@ -12514,7 +12487,7 @@
       </c>
       <c r="I3" s="21">
         <f>'4차'!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21">
         <f>'4차'!J3</f>
@@ -12526,11 +12499,11 @@
       </c>
       <c r="L3" s="21">
         <f>'4차'!L3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -12573,7 +12546,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -12616,7 +12589,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -12659,7 +12632,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -12702,7 +12675,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -12745,7 +12718,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -12788,7 +12761,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -12831,7 +12804,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -12874,7 +12847,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -12917,7 +12890,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -12960,7 +12933,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -13003,7 +12976,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -13046,7 +13019,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -13089,7 +13062,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -13132,7 +13105,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -13175,7 +13148,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -13218,7 +13191,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -13261,7 +13234,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -13304,7 +13277,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -13347,7 +13320,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -13390,7 +13363,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -13433,7 +13406,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -13476,7 +13449,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -13519,7 +13492,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -13562,7 +13535,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -13605,7 +13578,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -13648,7 +13621,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -13691,7 +13664,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -13734,7 +13707,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -13777,7 +13750,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -13820,7 +13793,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -13863,7 +13836,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -13906,7 +13879,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -13949,7 +13922,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -14007,17 +13980,17 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -14053,18 +14026,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <f>'5차'!E3 + ('5차'!F3*가격!$B$7 +'5차'!G3*가격!$C$7 + '5차'!H3*가격!$D$7 + '5차'!I3*가격!$E$7 + '5차'!J3*가격!$F$7 + '5차'!K3*가격!$G$7 + '5차'!L3*가격!$H$7)</f>
-        <v>975.01</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <f>D3-(F3*가격!$B$7 + '6차'!G3*가격!$C$7 + '6차'!H3*가격!$D$7 + '6차'!I3* 가격!$E$7 +'6차'!J3*가격!$F$7 + '6차'!K3*가격!$G$7 + '6차'!L3*가격!$H$7)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="21">
         <f>'5차'!F3</f>
@@ -14080,7 +14053,7 @@
       </c>
       <c r="I3" s="21">
         <f>'5차'!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21">
         <f>'5차'!J3</f>
@@ -14092,11 +14065,11 @@
       </c>
       <c r="L3" s="21">
         <f>'5차'!L3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -14139,7 +14112,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -14182,7 +14155,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -14225,7 +14198,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -14268,7 +14241,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -14311,7 +14284,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -14354,7 +14327,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -14397,7 +14370,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -14440,7 +14413,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -14483,7 +14456,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -14526,7 +14499,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -14569,7 +14542,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -14612,7 +14585,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -14655,7 +14628,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -14698,7 +14671,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -14741,7 +14714,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -14784,7 +14757,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -14827,7 +14800,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -14870,7 +14843,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -14913,7 +14886,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -14956,7 +14929,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -14999,7 +14972,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -15042,7 +15015,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -15085,7 +15058,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -15128,7 +15101,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -15171,7 +15144,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -15214,7 +15187,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -15257,7 +15230,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -15300,7 +15273,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -15343,7 +15316,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -15386,7 +15359,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -15429,7 +15402,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -15472,7 +15445,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -15515,7 +15488,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -15573,17 +15546,17 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" customWidth="1"/>
-    <col min="3" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -15619,18 +15592,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <f>'6차'!E3 + ('6차'!F3*가격!$B$8 +'6차'!G3*가격!$C$8 + '6차'!H3*가격!$D$8 + '6차'!I3*가격!$E$8 + '6차'!J3*가격!$F$8 + '6차'!K3*가격!$G$8 + '6차'!L3*가격!$H$8)</f>
-        <v>956.57999999999993</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <f>D3-(F3*가격!$B$8 + '7차'!G3*가격!$C$8 + '7차'!H3*가격!$D$8 + '7차'!I3* 가격!$E$8 +'7차'!J3*가격!$F$8 + '7차'!K3*가격!$G$8 + '7차'!L3*가격!$H$8)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="21">
         <f>'6차'!F3</f>
@@ -15646,7 +15619,7 @@
       </c>
       <c r="I3" s="21">
         <f>'6차'!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="21">
         <f>'6차'!J3</f>
@@ -15658,11 +15631,11 @@
       </c>
       <c r="L3" s="21">
         <f>'6차'!L3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -15705,7 +15678,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -15748,7 +15721,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -15791,7 +15764,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -15834,7 +15807,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -15877,7 +15850,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -15920,7 +15893,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -15963,7 +15936,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -16006,7 +15979,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -16049,7 +16022,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -16092,7 +16065,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -16135,7 +16108,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -16178,7 +16151,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -16221,7 +16194,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -16264,7 +16237,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -16307,7 +16280,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -16350,7 +16323,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -16393,7 +16366,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -16436,7 +16409,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -16479,7 +16452,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -16522,7 +16495,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -16565,7 +16538,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -16608,7 +16581,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -16651,7 +16624,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -16694,7 +16667,7 @@
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -16737,7 +16710,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -16780,7 +16753,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -16823,7 +16796,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -16866,7 +16839,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -16909,7 +16882,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -16952,7 +16925,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -16995,7 +16968,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -17038,7 +17011,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -17081,7 +17054,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>35</v>
       </c>
